--- a/data/trans_dic/P2A_lim_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P2A_lim_R-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,19%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,47%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,61%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,3%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,42%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,39%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,12%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,12%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,3%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,42%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,86%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,67%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,81</t>
+          <t>3,64; 6,89</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,56</t>
+          <t>7,26; 11,83</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,68</t>
+          <t>6,34; 10,92</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,61</t>
+          <t>11,58; 17,12</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,49</t>
+          <t>4,09; 7,15</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,92</t>
+          <t>8,99; 14,02</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,65</t>
+          <t>6,99; 11,38</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,79</t>
+          <t>10,12; 15,23</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,82</t>
+          <t>4,22; 6,6</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,86</t>
+          <t>8,78; 12,16</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,84</t>
+          <t>7,42; 10,52</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>11,8; 15,24</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,07%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,87%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,68%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,4%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,69%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,04%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,83%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,91%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,38%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,97%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,77%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,41%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>5,51; 9,06</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>8,21; 11,98</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>5,21; 8,61</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>6,12; 15,05</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>6,09; 9,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>10,15; 14,27</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>7,21; 11,05</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>14,18; 17,89</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>6,19; 8,53</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>9,63; 12,49</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>6,58; 9,02</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>9,17; 15,7</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,83%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,53%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,14%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,36%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,53%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,92%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,74%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,47%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,68%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,23%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,46%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,68%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>4,87; 8,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>6,56; 10,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>2,9; 6,02</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>12,73; 18,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>6,52; 11,04</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>7,85; 12,41</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>4,95; 8,94</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>14,0; 65,02</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>6,24; 9,2</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>7,72; 10,83</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>4,33; 6,9</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>14,38; 50,96</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,15%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,98%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,54%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,56%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,75%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,26%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,75%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,57%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,51%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,18%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,18%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,56%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>5,65; 9,04</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>7,93; 12,27</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>6,91; 10,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>9,63; 13,74</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>8,04; 11,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>10,23; 14,48</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>8,0; 11,93</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>9,2; 13,43</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>7,23; 9,8</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>9,66; 12,71</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>7,98; 10,55</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>10,11; 13,07</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,64%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,52%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,01%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,78%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,03%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,52%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,69%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,5%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,35%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,54%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,87%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,74%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>5,83; 7,57</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>8,5; 10,63</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>6,15; 7,89</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>10,07; 14,39</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>7,13; 9,04</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>10,37; 12,62</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>7,63; 9,57</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>13,4; 33,17</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>6,72; 7,98</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>9,75; 11,26</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>7,2; 8,53</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>12,84; 23,38</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,04</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,03</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,03</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,03</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,02</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P2A_lim_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P2A_lim_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -671,7 +672,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>14,3%</t>
+          <t>14,34%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +692,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>13,12%</t>
+          <t>13,2%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +712,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>13,67%</t>
+          <t>13,73%</t>
         </is>
       </c>
     </row>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,64; 6,89</t>
+          <t>3,75; 7,18</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,26; 11,83</t>
+          <t>7,28; 11,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,34; 10,92</t>
+          <t>6,56; 10,97</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>11,58; 17,12</t>
+          <t>11,97; 17,02</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,09; 7,15</t>
+          <t>3,88; 7,18</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,99; 14,02</t>
+          <t>9,07; 14,41</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,99; 11,38</t>
+          <t>7,06; 11,58</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>10,12; 15,23</t>
+          <t>10,36; 15,45</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,22; 6,6</t>
+          <t>4,2; 6,67</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>8,78; 12,16</t>
+          <t>8,83; 12,25</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>7,42; 10,52</t>
+          <t>7,5; 10,71</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>11,8; 15,24</t>
+          <t>11,85; 15,61</t>
         </is>
       </c>
     </row>
@@ -796,22 +797,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,07%</t>
+          <t>7,08%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>9,87%</t>
+          <t>9,9%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>6,68%</t>
+          <t>6,73%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>11,4%</t>
+          <t>11,42%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -826,32 +827,32 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>8,83%</t>
+          <t>8,86%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>15,91%</t>
+          <t>16,03%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>7,38%</t>
+          <t>7,39%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>10,97%</t>
+          <t>10,98%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>7,77%</t>
+          <t>7,81%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>13,41%</t>
+          <t>13,47%</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,51; 9,06</t>
+          <t>5,66; 8,95</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,21; 11,98</t>
+          <t>8,01; 11,99</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,21; 8,61</t>
+          <t>5,16; 8,54</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,12; 15,05</t>
+          <t>6,39; 15,34</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,09; 9,76</t>
+          <t>6,1; 9,65</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,15; 14,27</t>
+          <t>10,14; 14,32</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,21; 11,05</t>
+          <t>7,16; 10,79</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>14,18; 17,89</t>
+          <t>14,31; 18,14</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,19; 8,53</t>
+          <t>6,18; 8,68</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>9,63; 12,49</t>
+          <t>9,7; 12,46</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>6,58; 9,02</t>
+          <t>6,67; 9,23</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>9,17; 15,7</t>
+          <t>8,8; 15,68</t>
         </is>
       </c>
     </row>
@@ -936,7 +937,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,83%</t>
+          <t>6,88%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -946,17 +947,17 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,14%</t>
+          <t>4,19%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>15,36%</t>
+          <t>15,51%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>8,53%</t>
+          <t>8,55%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -966,17 +967,17 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>6,74%</t>
+          <t>6,78%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>33,47%</t>
+          <t>33,5%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>7,68%</t>
+          <t>7,72%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -986,12 +987,12 @@
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>5,46%</t>
+          <t>5,51%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>25,68%</t>
+          <t>25,8%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,87; 8,91</t>
+          <t>4,99; 9,1</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,56; 10,98</t>
+          <t>6,5; 10,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,9; 6,02</t>
+          <t>2,76; 5,97</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12,73; 18,62</t>
+          <t>12,7; 18,6</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,52; 11,04</t>
+          <t>6,57; 10,69</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,85; 12,41</t>
+          <t>7,8; 12,53</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,95; 8,94</t>
+          <t>4,98; 8,86</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>14,0; 65,02</t>
+          <t>13,88; 62,45</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,24; 9,2</t>
+          <t>6,33; 9,22</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,72; 10,83</t>
+          <t>7,74; 10,92</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,33; 6,9</t>
+          <t>4,35; 6,75</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>14,38; 50,96</t>
+          <t>14,48; 53,8</t>
         </is>
       </c>
     </row>
@@ -1076,12 +1077,12 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,15%</t>
+          <t>7,17%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>9,98%</t>
+          <t>9,99%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,37 +1092,37 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>11,56%</t>
+          <t>11,71%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>9,78%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>12,28%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
           <t>9,75%</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>12,26%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>9,75%</t>
-        </is>
-      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>11,57%</t>
+          <t>11,61%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>8,51%</t>
+          <t>8,54%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>11,18%</t>
+          <t>11,2%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1132,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>11,56%</t>
+          <t>11,65%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,65; 9,04</t>
+          <t>5,7; 9,12</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,93; 12,27</t>
+          <t>7,96; 12,29</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,91; 10,55</t>
+          <t>6,89; 10,8</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,63; 13,74</t>
+          <t>9,81; 14,04</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,04; 11,58</t>
+          <t>7,85; 11,77</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,23; 14,48</t>
+          <t>10,31; 14,43</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,0; 11,93</t>
+          <t>8,08; 11,94</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>9,2; 13,43</t>
+          <t>9,28; 13,4</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,23; 9,8</t>
+          <t>7,38; 9,86</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>9,66; 12,71</t>
+          <t>9,78; 12,83</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>7,98; 10,55</t>
+          <t>7,96; 10,52</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>10,11; 13,07</t>
+          <t>9,99; 13,25</t>
         </is>
       </c>
     </row>
@@ -1216,27 +1217,27 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>6,64%</t>
+          <t>6,66%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>9,52%</t>
+          <t>9,53%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>7,01%</t>
+          <t>7,04%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>12,78%</t>
+          <t>12,87%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>8,03%</t>
+          <t>8,04%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1246,32 +1247,32 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>8,69%</t>
+          <t>8,71%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>18,5%</t>
+          <t>18,58%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>7,35%</t>
+          <t>7,36%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>10,54%</t>
+          <t>10,55%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>7,87%</t>
+          <t>7,9%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>15,74%</t>
+          <t>15,83%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,83; 7,57</t>
+          <t>5,81; 7,58</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,5; 10,63</t>
+          <t>8,53; 10,68</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,15; 7,89</t>
+          <t>6,15; 8,06</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>10,07; 14,39</t>
+          <t>10,22; 14,51</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,13; 9,04</t>
+          <t>7,16; 9,11</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>10,37; 12,62</t>
+          <t>10,46; 12,66</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,63; 9,57</t>
+          <t>7,77; 9,71</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>13,4; 33,17</t>
+          <t>13,52; 33,16</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,72; 7,98</t>
+          <t>6,76; 8,02</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>9,75; 11,26</t>
+          <t>9,8; 11,25</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>7,2; 8,53</t>
+          <t>7,25; 8,56</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>12,84; 23,38</t>
+          <t>13,02; 27,71</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares con personas con alguna limitación</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>35992</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>66615</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>58108</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>90856</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>37293</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>79367</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>61340</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>95133</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>73285</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>145983</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>119447</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>185989</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>25995; 49826</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>51240; 84023</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>44235; 74022</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>75882; 107835</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>26712; 49422</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>63228; 100476</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>47512; 77905</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>74667; 111298</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>58042; 92147</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>123719; 171580</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>101104; 144297</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>160448; 211343</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>423</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>67971</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>100514</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>68282</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>136024</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>74502</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>124296</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>92133</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>152490</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>142473</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>224811</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>160414</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>288513</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>54348; 85914</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>81340; 121743</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>52414; 86704</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>76102; 182639</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>59036; 93460</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>104630; 147852</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>74502; 112192</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>136120; 172579</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>119071; 167380</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>198614; 255277</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>137151; 189607</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>188535; 335774</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>287</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>46335</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>64587</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>31444</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>108216</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>58359</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>77128</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>52904</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>312354</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>104693</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>141716</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>84348</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>420570</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>33645; 61316</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>49260; 81535</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>20700; 44776</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>88635; 129803</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>44847; 72987</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>60591; 97349</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>38859; 69222</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>129421; 582321</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>85899; 125068</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>118762; 167651</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>66529; 103331</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>236134; 877054</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>330</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>67362</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>94604</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>80107</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>107110</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>101276</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>128988</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>101786</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>126650</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>168638</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>223592</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>181894</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>233760</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>53591; 85705</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>75388; 116387</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>64561; 101302</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>89763; 128455</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>81271; 121863</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>108217; 151541</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>84339; 124615</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>101293; 146198</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>145737; 194836</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>195368; 256098</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>157664; 208493</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>200369; 265788</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>294</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>512</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>373</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>844</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>473</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>1356</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>217659</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>326322</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>237941</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>442206</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>271430</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>409780</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>308163</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>686628</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>489089</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>736101</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>546104</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>1128833</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>189845; 247810</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>291937; 365686</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>207562; 272160</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>351263; 498687</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>241531; 307359</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>372104; 450408</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>274838; 343545</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>499800; 1225374</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>448730; 532442</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>683949; 785386</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>501359; 591663</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>928987; 1976213</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>